--- a/test_data/railway_parameters.xlsx
+++ b/test_data/railway_parameters.xlsx
@@ -7,19 +7,21 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="mob" sheetId="1" r:id="rId1"/>
-    <sheet name="inf" sheetId="2" r:id="rId2"/>
-    <sheet name="deriv" sheetId="3" r:id="rId3"/>
+    <sheet name="mobility" sheetId="1" r:id="rId1"/>
+    <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
+    <sheet name="time" sheetId="5" r:id="rId3"/>
+    <sheet name="derivation" sheetId="3" r:id="rId4"/>
+    <sheet name="categories" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">mob!$A$1:$C$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$20</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -75,12 +77,6 @@
     <t>Time a train is parked at origin or destination (hr).</t>
   </si>
   <si>
-    <t>Loading capacity of a wagon (ton).</t>
-  </si>
-  <si>
-    <t>Towing capacity of a locomotive (ton).</t>
-  </si>
-  <si>
     <t>Time in a year a wagon is available to be used (hr/year).</t>
   </si>
   <si>
@@ -280,6 +276,108 @@
   </si>
   <si>
     <t>Maximum distance density (gross ton) supported by maximum distance turnouts (ton). Above this density, more turnouts are needed (distance between them is less).</t>
+  </si>
+  <si>
+    <t>max_derivation_1</t>
+  </si>
+  <si>
+    <t>max_derivation_2</t>
+  </si>
+  <si>
+    <t>max_derivation_3</t>
+  </si>
+  <si>
+    <t>max_derivation_4</t>
+  </si>
+  <si>
+    <t>max_derivation_5</t>
+  </si>
+  <si>
+    <t>regroup_1</t>
+  </si>
+  <si>
+    <t>regroup_2</t>
+  </si>
+  <si>
+    <t>regroup_3</t>
+  </si>
+  <si>
+    <t>regroup_4</t>
+  </si>
+  <si>
+    <t>regroup_5</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 1 - grains (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 2 - primary products no grains (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 3 - semi manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 4 - manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Maximum % of derivation for product category 5 - unknown (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 1 - grains (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 2 - primary products no grains (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 3 - semi manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 4 - manufactured (coeff).</t>
+  </si>
+  <si>
+    <t>Regroup trains to reduce idle capacity (1=yes, 0=no) for product category 5 - unknown (coeff).</t>
+  </si>
+  <si>
+    <t>Towing capacity of a locomotive (ton). - Using 0,56 loading factor to account for empty returning locomotives.</t>
+  </si>
+  <si>
+    <t>Loading capacity of a wagon (ton). - Using 0,56 loading factor to account for empty returning wagons.</t>
+  </si>
+  <si>
+    <t>deposit_cost_per_day_ton</t>
+  </si>
+  <si>
+    <t>Cost of hold a ton of freight in a deposit one day (USD/ton-day).</t>
+  </si>
+  <si>
+    <t>ratio_truck_to_train_travel_time</t>
+  </si>
+  <si>
+    <t>Ratio of truck travel time to train travel time (coeff). Truck is always faster than train.</t>
+  </si>
+  <si>
+    <t>cost_of_immobilized_ton</t>
+  </si>
+  <si>
+    <t>Its the opportunity cost of having value immobilized over time, calculated as day interest rate * average freight value of a ton (USD/ton-day).</t>
+  </si>
+  <si>
+    <t>short_freight_to_train</t>
+  </si>
+  <si>
+    <t>Average cost of transport from door to train station (USD/ton).</t>
+  </si>
+  <si>
+    <t>loading_ratio</t>
+  </si>
+  <si>
+    <t>Ratio of average net loading over total capacity per train or wagon (coeff). It reflects empty trains coming back to origin after doing a service.</t>
+  </si>
+  <si>
+    <t>min_weekly_freq</t>
+  </si>
+  <si>
+    <t>Minimum trains per week that have to be to service an od pair (number).</t>
   </si>
 </sst>
 </file>
@@ -656,10 +754,10 @@
     <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +802,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3">
         <v>15</v>
@@ -715,13 +813,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="3">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -732,7 +830,7 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -743,7 +841,7 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -754,7 +852,7 @@
         <v>8672</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -765,7 +863,7 @@
         <v>6570</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -784,7 +882,7 @@
         <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,139 +893,161 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="5">
         <v>6463.835901091652</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5">
         <v>154445.87620922364</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5">
         <v>100170</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5">
         <v>2487.6562500000005</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7">
         <v>30.416666666666668</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="4">
         <v>1.67</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5">
         <v>700000</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="4">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -943,9 +1063,7 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -967,123 +1085,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4">
         <v>-0.62124999999999997</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4">
         <v>10.34046</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4">
         <v>-0.93081999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="4">
         <v>458.46100000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4">
         <v>175000</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4">
         <v>0.08</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="5">
         <v>109500</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B11" s="5">
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="5">
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1094,18 +1212,18 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1118,10 +1236,88 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="92.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>0.11853075454128587</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>1.1752104423052856</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1345,7 @@
         <v>5000</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1160,51 +1356,195 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="8">
         <v>0.8</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4">
         <v>500</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="5">
         <v>120000</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="107.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>0.8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/railway_parameters.xlsx
+++ b/test_data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -239,9 +239,6 @@
     <t>main_min_density</t>
   </si>
   <si>
-    <t>Minimum density to consider a link as being a main track (ton-km/ton = ton).</t>
-  </si>
-  <si>
     <t>gross_tk_in_hq_track_lifetime</t>
   </si>
   <si>
@@ -378,6 +375,27 @@
   </si>
   <si>
     <t>Minimum trains per week that have to be to service an od pair (number).</t>
+  </si>
+  <si>
+    <t>Minimum net density to consider a link as being a main track (ton-km/ton = ton).</t>
+  </si>
+  <si>
+    <t>infrast_cost_rpc</t>
+  </si>
+  <si>
+    <t>Shadow price to market price ratio in infrastructure cost (coeff).</t>
+  </si>
+  <si>
+    <t>mobility_cost_rpc</t>
+  </si>
+  <si>
+    <t>Shadow price to market price ratio in mobility cost (coeff).</t>
+  </si>
+  <si>
+    <t>time_cost_rpc</t>
+  </si>
+  <si>
+    <t>Shadow price to market price ratio in time cost (coeff).</t>
   </si>
 </sst>
 </file>
@@ -387,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +417,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -449,6 +474,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +856,7 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,7 +867,7 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,32 +1048,32 @@
         <v>71</v>
       </c>
       <c r="B24" s="5">
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="4">
         <v>0.56000000000000005</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="4">
-        <v>2</v>
+        <v>121</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.82</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1061,9 +1087,11 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1151,13 +1179,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="4">
         <v>0.08</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,29 +1207,29 @@
         <v>109500</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="5">
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B12" s="5">
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,18 +1240,29 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1236,10 +1275,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,46 +1301,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>0.11853075454128587</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4">
         <v>1.1752104423052856</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1394,13 +1455,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1439,112 +1500,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>0.6</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/railway_parameters.xlsx
+++ b/test_data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Design tons for high quality track. Gross tons that a hq track is suposed to support during its lifetime (gross ton-km).</t>
   </si>
   <si>
-    <t>The price of 1km of hight quality track (USD/km).</t>
-  </si>
-  <si>
     <t>max_path_difference</t>
   </si>
   <si>
@@ -396,6 +393,21 @@
   </si>
   <si>
     <t>Shadow price to market price ratio in time cost (coeff).</t>
+  </si>
+  <si>
+    <t>low_quality_track_price</t>
+  </si>
+  <si>
+    <t>The price of 1km of low quality track (USD/km).</t>
+  </si>
+  <si>
+    <t>The price of 1km of high quality track (USD/km).</t>
+  </si>
+  <si>
+    <t>gross_main_min_density</t>
+  </si>
+  <si>
+    <t>Minimum gross density to consider a link as being a main track (ton-km/ton = ton). Used for secondary track eac cost calculation.</t>
   </si>
 </sst>
 </file>
@@ -449,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -475,6 +487,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +797,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +870,7 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,7 +881,7 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,29 +1065,29 @@
         <v>800000</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="4">
         <v>0.56000000000000005</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B26" s="10">
         <v>0.82</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1087,10 +1101,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1243,7 @@
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,29 +1254,51 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="10">
         <v>0.82</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="12">
+        <v>200000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1333333.3333333333</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1313,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1301,68 +1337,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>0.11853075454128587</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>1.1752104423052856</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1414,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,13 +1491,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1513,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,112 +1536,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2">
+        <v>83</v>
+      </c>
+      <c r="B2" s="11">
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3">
+        <v>84</v>
+      </c>
+      <c r="B3" s="11">
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
+        <v>85</v>
+      </c>
+      <c r="B4" s="11">
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5">
+        <v>86</v>
+      </c>
+      <c r="B5" s="11">
         <v>0.6</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="B6" s="11">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/railway_parameters.xlsx
+++ b/test_data/railway_parameters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -414,8 +414,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -461,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -489,6 +490,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,7 +802,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1067,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="5">
-        <v>800000</v>
+        <v>420000</v>
       </c>
       <c r="C24" t="s">
         <v>117</v>
@@ -1083,7 +1088,7 @@
       <c r="A26" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="13">
         <v>0.82</v>
       </c>
       <c r="C26" t="s">
@@ -1103,8 +1108,8 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1289,7 @@
         <v>124</v>
       </c>
       <c r="B16" s="12">
-        <v>200000</v>
+        <v>156250.76923076919</v>
       </c>
       <c r="C16" t="s">
         <v>125</v>
@@ -1295,7 +1300,7 @@
         <v>127</v>
       </c>
       <c r="B17" s="12">
-        <v>1333333.3333333333</v>
+        <v>701400</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>
@@ -1510,10 +1515,10 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1528,7 @@
     <col min="3" max="3" width="107.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1534,62 +1539,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="14">
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="14">
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <v>0.6</v>
       </c>
       <c r="C5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="14">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -1600,7 +1610,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1611,7 +1621,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -1622,7 +1632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -1633,7 +1643,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>

--- a/test_data/railway_parameters.xlsx
+++ b/test_data/railway_parameters.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
     <sheet name="infrastructure" sheetId="2" r:id="rId2"/>
-    <sheet name="time" sheetId="5" r:id="rId3"/>
+    <sheet name="time and others" sheetId="5" r:id="rId3"/>
     <sheet name="derivation" sheetId="3" r:id="rId4"/>
     <sheet name="categories" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$20</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Maximum wagons carried by a single locomotive (units/loc).</t>
   </si>
   <si>
-    <t>Minimum tons an origin-destination pair must carry to be derivable to railway (ton).</t>
-  </si>
-  <si>
     <t>Minimum distance an origin-destination pair cover to be derivable to railway (ton).</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>max_derivation</t>
   </si>
   <si>
-    <t>Probability of truck to rail derivation on the longest distances, ie maximum probability of derivation (%).</t>
-  </si>
-  <si>
     <t>Distance since probability of truck to rail derivation is maximum (km).</t>
   </si>
   <si>
@@ -408,6 +402,27 @@
   </si>
   <si>
     <t>Minimum gross density to consider a link as being a main track (ton-km/ton = ton). Used for secondary track eac cost calculation.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>min_tons_to_be_derived</t>
+  </si>
+  <si>
+    <t>Minimum tons a road origin-destination pair must carry to be derivable to railway (ton).</t>
+  </si>
+  <si>
+    <t>min_derivation</t>
+  </si>
+  <si>
+    <t>Proportion of truck to rail derivation on the longest distances and ton scale, ie maximum proportion of derivation (%).</t>
+  </si>
+  <si>
+    <t>Proportion of truck to rail derivation on the minimum distances and ton scale, ie minimum proportion of derivation (%).</t>
+  </si>
+  <si>
+    <t>Minimum tons that can be effectively derived in an origin-destination pair. If derivation calculation throws less than this threshold, od pair is not derivable (ton).</t>
   </si>
 </sst>
 </file>
@@ -801,8 +816,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +829,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -847,7 +862,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3">
         <v>15</v>
@@ -858,13 +873,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -875,7 +890,7 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,7 +901,7 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,156 +958,156 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="5">
         <v>6463.835901091652</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="5">
         <v>154445.87620922364</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="9">
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
         <v>100170</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="5">
         <v>2487.6562500000005</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="7">
         <v>30.416666666666668</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4">
         <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4">
         <v>1.67</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5">
         <v>420000</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="4">
         <v>0.56000000000000005</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="13">
         <v>0.82</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1124,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,123 +1147,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4">
         <v>-0.62124999999999997</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4">
         <v>10.34046</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4">
         <v>-0.93081999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="4">
         <v>458.46100000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4">
         <v>175000</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="4">
         <v>0.08</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="4">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5">
         <v>109500</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5">
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5">
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,51 +1274,51 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" s="10">
         <v>0.82</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" s="12">
         <v>156250.76923076919</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B17" s="12">
         <v>701400</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1334,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,68 +1357,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2">
         <v>0.11853075454128587</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>1.1752104423052856</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1416,16 +1431,16 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="63.140625" customWidth="1"/>
+    <col min="3" max="3" width="83.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,7 +1462,7 @@
         <v>5000</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,51 +1473,73 @@
         <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="8">
         <v>0.8</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="4">
-        <v>500</v>
+        <v>130</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="5">
-        <v>120000</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="4">
+        <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="4">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5">
+        <v>120000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.5</v>
       </c>
-      <c r="C7" t="s">
-        <v>79</v>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1517,8 +1554,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,117 +1578,117 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="14">
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="14">
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="14">
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="14">
         <v>0.6</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="14">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/railway_parameters.xlsx
+++ b/test_data/railway_parameters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="mobility" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="categories" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">mobility!$A$1:$C$23</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="138">
   <si>
     <t>turnout_freq</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Minimum distance an origin-destination pair cover to be derivable to railway (ton).</t>
   </si>
   <si>
-    <t>wagon_eac</t>
-  </si>
-  <si>
-    <t>locomotive_eac</t>
-  </si>
-  <si>
     <t>fuel_cost_by_km</t>
   </si>
   <si>
@@ -113,12 +107,6 @@
     <t>Fuel cost of running a locomotive one km (USD/km).</t>
   </si>
   <si>
-    <t>Equivalent anual cost of a locomotive. It must be calculated outside the model, from a spreadsheet (USD).</t>
-  </si>
-  <si>
-    <t>Equivalent anual cost of a wagon. It must be calculated outside the model, from a spreadsheet (USD).</t>
-  </si>
-  <si>
     <t>maintenance_by_locomotive</t>
   </si>
   <si>
@@ -131,12 +119,6 @@
     <t>Annual cost of a wagon maintenance (USD).</t>
   </si>
   <si>
-    <t>manpower_cost_by_loc_hour</t>
-  </si>
-  <si>
-    <t>Cost of conduction and guards manpower, by hour of locomotive running or waiting in turnout (USD/loc-hr).</t>
-  </si>
-  <si>
     <t>locom_head_stops_time</t>
   </si>
   <si>
@@ -149,9 +131,6 @@
     <t>max_derivation</t>
   </si>
   <si>
-    <t>Distance since probability of truck to rail derivation is maximum (km).</t>
-  </si>
-  <si>
     <t>dist_of_max_derivation</t>
   </si>
   <si>
@@ -164,9 +143,6 @@
     <t>tons_of_max_derivation</t>
   </si>
   <si>
-    <t>Tons since probability of truck to rail derivation is maximum (tons).</t>
-  </si>
-  <si>
     <t>coef_a_track_maint_cost</t>
   </si>
   <si>
@@ -407,12 +383,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>min_tons_to_be_derived</t>
-  </si>
-  <si>
-    <t>Minimum tons a road origin-destination pair must carry to be derivable to railway (ton).</t>
-  </si>
-  <si>
     <t>min_derivation</t>
   </si>
   <si>
@@ -422,18 +392,62 @@
     <t>Proportion of truck to rail derivation on the minimum distances and ton scale, ie minimum proportion of derivation (%).</t>
   </si>
   <si>
-    <t>Minimum tons that can be effectively derived in an origin-destination pair. If derivation calculation throws less than this threshold, od pair is not derivable (ton).</t>
+    <t>Minimum tons that must be derivable from a road origin-destination pair to be considered a derivable od pair (ton).</t>
+  </si>
+  <si>
+    <t>Distance since proportion of truck to rail derivation is maximum (km).</t>
+  </si>
+  <si>
+    <t>Road od tons since proportion of truck to rail derivation is maximum (tons).</t>
+  </si>
+  <si>
+    <t>manpower_cost_by_hour</t>
+  </si>
+  <si>
+    <t>manpower_by_loc</t>
+  </si>
+  <si>
+    <t>Cost of conduction and guards manpower, by hour (USD/hr).</t>
+  </si>
+  <si>
+    <t>Number of manpower needed to operate a single train (number).</t>
+  </si>
+  <si>
+    <t>locomotive_price</t>
+  </si>
+  <si>
+    <t>wagon_price</t>
+  </si>
+  <si>
+    <t>useful_life_wagon</t>
+  </si>
+  <si>
+    <t>useful_life_locom</t>
+  </si>
+  <si>
+    <t>Price of wagon (USD).</t>
+  </si>
+  <si>
+    <t>Price of a locomotive (USD).</t>
+  </si>
+  <si>
+    <t>Useful life a wagon (years).</t>
+  </si>
+  <si>
+    <t>Useful life a locomotive (years).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +470,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -474,10 +495,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -499,7 +521,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,9 +530,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,22 +839,22 @@
     <tabColor theme="7" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="97.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="97.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -838,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -849,7 +874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -860,9 +885,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B4" s="3">
         <v>15</v>
@@ -871,18 +896,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -890,10 +915,10 @@
         <v>33.6</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -901,10 +926,10 @@
         <v>1276.8000000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -915,7 +940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -926,7 +951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -934,7 +959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -945,7 +970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -956,158 +981,191 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="5">
+        <v>80000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1800000</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="5">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="5">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5">
-        <v>6463.835901091652</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="9">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5">
+        <v>100170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2487.6562500000005</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="5">
-        <v>154445.87620922364</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="7">
+        <v>15.21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="5">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="9">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5">
-        <v>100170</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2487.6562500000005</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="7">
-        <v>30.416666666666668</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="4">
         <v>100</v>
       </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="4">
         <v>1.67</v>
       </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="5">
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="5">
         <v>420000</v>
       </c>
-      <c r="C24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="C29" t="s">
         <v>111</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="13">
-        <v>0.82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1124,10 +1182,10 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -1147,123 +1205,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B2" s="4">
         <v>-0.62124999999999997</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>10.34046</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4">
         <v>-0.93081999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B5" s="4">
         <v>458.46100000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4">
         <v>175000</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B8" s="4">
         <v>0.08</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5">
         <v>109500</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5">
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5">
         <v>800000</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1274,51 +1332,51 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5">
         <v>1200000</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B15" s="10">
         <v>0.82</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B16" s="12">
         <v>156250.76923076919</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B17" s="12">
         <v>701400</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1334,14 +1392,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="92.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="92.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,68 +1415,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>0.11853075454128587</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>1.1752104423052856</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1431,16 +1489,16 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="83.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="83.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,11 +1516,11 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
-        <v>5000</v>
+      <c r="B2" s="5">
+        <v>7000</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,69 +1536,73 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4" s="8">
         <v>0.8</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B5" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4">
         <v>500</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5">
         <v>120000</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4">
         <v>0.5</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="4">
-        <v>15000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>133</v>
-      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,11 +1620,11 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="107.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="107.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,117 +1640,117 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B2" s="14">
         <v>0.8</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B3" s="14">
         <v>0.7</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B4" s="14">
         <v>0.7</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B5" s="14">
         <v>0.6</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B6" s="14">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
